--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_23.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>306658.4171356695</v>
+        <v>357673.1341635479</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,22 +665,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.83589518354175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>94.48766447978133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>90.26975814551395</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>65.59445268283731</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>230.6992324161051</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>124.9974941229</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>62.97619225831021</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>25.17354161800006</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>23.10070491240167</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>136.8141059372484</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>39.82778746869526</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>326.2575215723778</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1512,10 +1512,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.37669028362031</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>92.4784086463653</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
         <v>54.86879163620181</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>20.91122745336624</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>29.38391736390425</v>
       </c>
       <c r="T15" t="n">
         <v>197.5472709665096</v>
@@ -1749,10 +1749,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.37669028362031</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>163.6851955497072</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
@@ -1901,16 +1901,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>248.4637397942721</v>
       </c>
       <c r="W17" t="n">
-        <v>318.2801892474972</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426666</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.00199333851304</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>116.1611518470178</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
-        <v>13.50227241754284</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>121.1169180541124</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>104.262613881998</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2223,10 +2223,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>108.2159916811118</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8482076906871</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.9705324835873</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>24.97975510385934</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>89.17233976177307</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>123.9016456324683</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4465608509556</v>
+        <v>55.3154538915926</v>
       </c>
       <c r="H25" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>85.01043530101143</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>407.5139079104326</v>
+        <v>194.3411067988954</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>113.1507170764644</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5443389727455</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>143.2914151594128</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>115.1165353722836</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>6.689382451253441</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>147.853341511712</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
@@ -2886,10 +2886,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>29.38391736390425</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>85.01043530101144</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>187.9216174196137</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>275.3836093960962</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>126.6553273111653</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>126.8958082950055</v>
       </c>
       <c r="F33" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.96858446130993</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>111.0607502491295</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,16 +3275,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>183.8814738793897</v>
       </c>
       <c r="I35" t="n">
-        <v>129.1122901634658</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>9.136888730010115</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3363,7 +3363,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>115.4152783393348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>50.15718953603389</v>
+        <v>77.50776027739583</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>368.1853140382256</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>207.9316113046343</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -3566,10 +3566,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3636,7 +3636,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>105.477605073267</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>181.8453877183258</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>122.3078802415591</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>156.8482076906872</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>207.5109024131336</v>
       </c>
       <c r="U41" t="n">
-        <v>143.6252237055854</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>24.64815776426666</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>136.965517734884</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>63.18466222531525</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>268.9755074231835</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>120.5792730585093</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>139.937420180024</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4071,7 +4071,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>15.60609219526648</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>116.9896815310515</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
         <v>197.5472709665096</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.970532483588</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>4.392375396355269</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>509.8046290289238</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>509.8046290289238</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>502.8591282797204</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.787934186969</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,13 +4410,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>868.6150701775238</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>868.6150701775238</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>868.6150701775238</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="V3" t="n">
-        <v>868.6150701775238</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="W3" t="n">
-        <v>868.6150701775238</v>
+        <v>396.1021129885993</v>
       </c>
       <c r="X3" t="n">
-        <v>660.7635699719909</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.003271207037</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.8046290289238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>509.8046290289238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>509.8046290289238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>509.8046290289238</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
-        <v>502.8591282797204</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>509.8046290289238</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>509.8046290289238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>509.8046290289238</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.8046290289238</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292.8299288097498</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="C6" t="n">
-        <v>292.8299288097498</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="D6" t="n">
-        <v>292.8299288097498</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E6" t="n">
-        <v>292.8299288097498</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F6" t="n">
-        <v>146.2953708366348</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>597.0887160098534</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>597.0887160098534</v>
       </c>
       <c r="W6" t="n">
-        <v>500.6814290152826</v>
+        <v>597.0887160098534</v>
       </c>
       <c r="X6" t="n">
-        <v>292.8299288097498</v>
+        <v>597.0887160098534</v>
       </c>
       <c r="Y6" t="n">
-        <v>292.8299288097498</v>
+        <v>597.0887160098534</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.23626279480629</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>315.6850394389064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.23626279480629</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>343.4227147053767</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="C9" t="n">
-        <v>168.9696854242497</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4884,16 +4884,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>551.2742149109096</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>551.2742149109096</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>551.2742149109096</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W9" t="n">
-        <v>551.2742149109096</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="X9" t="n">
-        <v>343.4227147053767</v>
+        <v>182.1001465464452</v>
       </c>
       <c r="Y9" t="n">
-        <v>343.4227147053767</v>
+        <v>182.1001465464452</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="C11" t="n">
-        <v>2115.893810642661</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="D11" t="n">
         <v>1757.628112035911</v>
@@ -5039,16 +5039,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
         <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5063,28 +5063,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="Y11" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
     </row>
     <row r="12">
@@ -5118,49 +5118,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.95990094567</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
         <v>1157.094557224842</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>195.7305522826212</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>195.7305522826212</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
-        <v>195.7305522826212</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I13" t="n">
         <v>102.3180182963936</v>
@@ -5200,7 +5200,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2344.749822082216</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>1206.501278074326</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5300,28 +5300,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.749822082216</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.749822082216</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="X14" t="n">
-        <v>2344.749822082216</v>
+        <v>1592.28953067257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2344.749822082216</v>
+        <v>1592.28953067257</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5373,34 +5373,34 @@
         <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V15" t="n">
-        <v>1460.197257673872</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W15" t="n">
-        <v>1205.95990094567</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.95990094567</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="C17" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="D17" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="E17" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H17" t="n">
         <v>212.2335778049849</v>
@@ -5513,13 +5513,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376119</v>
@@ -5549,16 +5549,16 @@
         <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>1362.438508105998</v>
       </c>
       <c r="W17" t="n">
-        <v>960.8539546480588</v>
+        <v>1362.438508105998</v>
       </c>
       <c r="X17" t="n">
-        <v>960.8539546480588</v>
+        <v>988.9727498449184</v>
       </c>
       <c r="Y17" t="n">
-        <v>960.8539546480588</v>
+        <v>598.8334178691067</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>814.4261909236466</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5592,52 +5592,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1533.364070505576</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2308.384172245334</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2147.15061714589</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1947.60791919992</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1719.427454854077</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1484.275346622335</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1230.037989894133</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1022.1864896886</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y18" t="n">
-        <v>814.4261909236466</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L19" t="n">
         <v>194.9121237200978</v>
@@ -5695,22 +5695,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>164.2294932568138</v>
       </c>
       <c r="V19" t="n">
-        <v>63.90293997634646</v>
+        <v>164.2294932568138</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>164.2294932568138</v>
       </c>
       <c r="X19" t="n">
         <v>46.89499644164432</v>
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1319.119653254809</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C20" t="n">
-        <v>1319.119653254809</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D20" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E20" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5777,25 +5777,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2256.737617983626</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T20" t="n">
-        <v>2256.737617983626</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U20" t="n">
-        <v>2002.951195868494</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>1671.888308524923</v>
+        <v>1491.071661378887</v>
       </c>
       <c r="W20" t="n">
-        <v>1319.119653254809</v>
+        <v>1491.071661378887</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.119653254809</v>
+        <v>1491.071661378887</v>
       </c>
       <c r="Y20" t="n">
-        <v>1319.119653254809</v>
+        <v>1491.071661378887</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>121.6684232076319</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1266.403639731015</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>205.3275294625404</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="C22" t="n">
-        <v>46.89499644164432</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="D22" t="n">
-        <v>46.89499644164432</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="E22" t="n">
-        <v>46.89499644164432</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="F22" t="n">
-        <v>46.89499644164432</v>
+        <v>158.9864433947628</v>
       </c>
       <c r="G22" t="n">
         <v>46.89499644164432</v>
@@ -5911,7 +5911,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5950,10 +5950,10 @@
         <v>607.7685734363102</v>
       </c>
       <c r="X22" t="n">
-        <v>607.7685734363102</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y22" t="n">
-        <v>386.9759942927801</v>
+        <v>158.9864433947628</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2319.517746219732</v>
+        <v>1104.471821314765</v>
       </c>
       <c r="C23" t="n">
-        <v>1950.55522927932</v>
+        <v>735.5093043743535</v>
       </c>
       <c r="D23" t="n">
-        <v>1592.28953067257</v>
+        <v>377.243605767603</v>
       </c>
       <c r="E23" t="n">
-        <v>1206.501278074326</v>
+        <v>377.243605767603</v>
       </c>
       <c r="F23" t="n">
-        <v>795.5153732847182</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G23" t="n">
         <v>377.243605767603</v>
@@ -5987,16 +5987,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6020,19 +6020,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2319.517746219732</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V23" t="n">
-        <v>2319.517746219732</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W23" t="n">
-        <v>2319.517746219732</v>
+        <v>2254.676751615779</v>
       </c>
       <c r="X23" t="n">
-        <v>2319.517746219732</v>
+        <v>1881.210993354699</v>
       </c>
       <c r="Y23" t="n">
-        <v>2319.517746219732</v>
+        <v>1491.071661378887</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790.3481019751835</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>615.8950726940565</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>490.7418952875228</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>331.5044402820673</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>184.9698823089523</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
         <v>46.89499644164432</v>
@@ -6066,22 +6066,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
         <v>2344.749822082216</v>
@@ -6127,22 +6127,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="D25" t="n">
-        <v>607.7685734363102</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E25" t="n">
-        <v>607.7685734363102</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="F25" t="n">
-        <v>460.8786259383999</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="G25" t="n">
-        <v>291.7406856849093</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H25" t="n">
-        <v>132.7641230083225</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J25" t="n">
         <v>46.89499644164432</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1954.610490106405</v>
+        <v>1493.637104951312</v>
       </c>
       <c r="C26" t="n">
-        <v>1585.647973165993</v>
+        <v>1124.6745880109</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.647973165993</v>
+        <v>1124.6745880109</v>
       </c>
       <c r="E26" t="n">
-        <v>1199.859720567749</v>
+        <v>738.8863354126561</v>
       </c>
       <c r="F26" t="n">
-        <v>788.8738157781411</v>
+        <v>738.8863354126561</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X26" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="Y26" t="n">
-        <v>1954.610490106405</v>
+        <v>1880.236945015434</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>676.0544483625931</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C27" t="n">
-        <v>501.6014190814661</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="D27" t="n">
-        <v>352.6670094202149</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E27" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F27" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,19 +6306,19 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>244.4315198664946</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L27" t="n">
-        <v>613.9827349749785</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M27" t="n">
-        <v>1097.210794042153</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N27" t="n">
-        <v>1608.935475330326</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2010.647906926653</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
         <v>2193.291384540003</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1783.87624508755</v>
+        <v>191.6337996329704</v>
       </c>
       <c r="C28" t="n">
-        <v>1783.87624508755</v>
+        <v>191.6337996329704</v>
       </c>
       <c r="D28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S28" t="n">
-        <v>2128.053995588337</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T28" t="n">
-        <v>1900.155573746422</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.87624508755</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V28" t="n">
-        <v>1783.87624508755</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="W28" t="n">
-        <v>1783.87624508755</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="X28" t="n">
-        <v>1783.87624508755</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="Y28" t="n">
-        <v>1783.87624508755</v>
+        <v>191.6337996329704</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>630.5053453221001</v>
+        <v>742.2662563453166</v>
       </c>
       <c r="C29" t="n">
-        <v>630.5053453221001</v>
+        <v>742.2662563453166</v>
       </c>
       <c r="D29" t="n">
-        <v>630.5053453221001</v>
+        <v>384.0005577385661</v>
       </c>
       <c r="E29" t="n">
-        <v>630.5053453221001</v>
+        <v>384.0005577385661</v>
       </c>
       <c r="F29" t="n">
-        <v>630.5053453221001</v>
+        <v>384.0005577385661</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2335778049849</v>
+        <v>384.0005577385661</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>53.6519484126074</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,31 +6482,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2195.403012474427</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>1975.420253106005</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U29" t="n">
-        <v>1721.633830990872</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V29" t="n">
-        <v>1390.570943647302</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="W29" t="n">
-        <v>1390.570943647302</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="X29" t="n">
-        <v>1017.105185386222</v>
+        <v>1128.866096409438</v>
       </c>
       <c r="Y29" t="n">
-        <v>1017.105185386222</v>
+        <v>1128.866096409438</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>814.129334229901</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>639.676304948774</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6543,19 +6543,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>172.2525564994817</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1097.210794042153</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
-        <v>1608.935475330326</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2010.647906926653</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
         <v>2193.291384540003</v>
@@ -6567,25 +6567,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S30" t="n">
-        <v>2315.069097472212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T30" t="n">
-        <v>2115.526399526243</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U30" t="n">
-        <v>1887.3459351804</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V30" t="n">
-        <v>1652.193826948657</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W30" t="n">
-        <v>1397.956470220456</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X30" t="n">
-        <v>1190.104970014923</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y30" t="n">
-        <v>982.344671249969</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>521.899446869632</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2190.391887156797</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>1973.696060662917</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="C32" t="n">
-        <v>1975.787305141805</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.521606535054</v>
+        <v>560.6179230915707</v>
       </c>
       <c r="E32" t="n">
-        <v>1231.73335393681</v>
+        <v>174.8296704933264</v>
       </c>
       <c r="F32" t="n">
-        <v>820.7474491472024</v>
+        <v>174.8296704933264</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>174.8296704933264</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
         <v>762.591673824455</v>
@@ -6719,31 +6719,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X32" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="Y32" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551154</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739884</v>
+        <v>783.3663200545602</v>
       </c>
       <c r="D33" t="n">
-        <v>298.7453260127371</v>
+        <v>634.431910393309</v>
       </c>
       <c r="E33" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
@@ -6780,22 +6780,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>232.2520930628877</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>601.8033081713716</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1085.031367238546</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1596.756048526719</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>1998.468480123046</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P33" t="n">
-        <v>2275.355263568887</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6804,25 +6804,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673872</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401373</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.3481019751835</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.86091236428</v>
+        <v>1896.058821096772</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9247294363731</v>
+        <v>1896.058821096772</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8080900240374</v>
+        <v>1896.058821096772</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T34" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="X34" t="n">
-        <v>607.7685734363102</v>
+        <v>2116.851400240302</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.7685734363102</v>
+        <v>1896.058821096772</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1290.327919297622</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="C35" t="n">
-        <v>921.3654023572105</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="D35" t="n">
-        <v>563.0997037504601</v>
+        <v>1613.018365214386</v>
       </c>
       <c r="E35" t="n">
-        <v>177.3114511522159</v>
+        <v>1227.230112616142</v>
       </c>
       <c r="F35" t="n">
-        <v>177.3114511522159</v>
+        <v>816.2442078265342</v>
       </c>
       <c r="G35" t="n">
-        <v>177.3114511522159</v>
+        <v>397.972440309419</v>
       </c>
       <c r="H35" t="n">
-        <v>177.3114511522159</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376119</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X35" t="n">
-        <v>1676.927759361744</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y35" t="n">
-        <v>1676.927759361744</v>
+        <v>1971.284063821136</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.1634746939509</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>746.7104454128239</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>597.7760357515726</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7020,10 +7020,10 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>654.1123778535884</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
         <v>1486.172378671464</v>
@@ -7056,10 +7056,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.95990094567</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.378811714019</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U37" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V37" t="n">
-        <v>2344.749822082216</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W37" t="n">
-        <v>2055.332652045256</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="X37" t="n">
-        <v>2004.66882423108</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.89499644164378</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164378</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164378</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164378</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164378</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164378</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164378</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
-        <v>46.89499644164378</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2134.717891471475</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U38" t="n">
-        <v>1880.931469356342</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V38" t="n">
-        <v>1549.868582012771</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W38" t="n">
-        <v>1197.099926742657</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="X38" t="n">
-        <v>823.6341684815773</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="Y38" t="n">
-        <v>433.4948365057656</v>
+        <v>1332.758312262428</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>743.7701938734156</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="C39" t="n">
-        <v>569.3171645922886</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>420.3827549310373</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>261.1452999255818</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
         <v>114.6107419524668</v>
@@ -7254,22 +7254,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L39" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M39" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7284,19 +7284,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>1816.986794823915</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1581.834686592172</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W39" t="n">
-        <v>1327.59732986397</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X39" t="n">
-        <v>1119.745829658438</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y39" t="n">
-        <v>911.9855308934837</v>
+        <v>814.4261909236466</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4383098169565</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4383098169565</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>170.4383098169565</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7333,7 +7333,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7369,13 +7369,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X40" t="n">
-        <v>449.3360404154141</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y40" t="n">
-        <v>228.543461271884</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>457.8809012312519</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C41" t="n">
-        <v>457.8809012312519</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D41" t="n">
-        <v>457.8809012312519</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E41" t="n">
-        <v>457.8809012312519</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F41" t="n">
         <v>46.89499644164432</v>
@@ -7409,16 +7409,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7436,25 +7436,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2050.393517622824</v>
+        <v>1877.574191994743</v>
       </c>
       <c r="U41" t="n">
-        <v>1905.317534081828</v>
+        <v>1877.574191994743</v>
       </c>
       <c r="V41" t="n">
-        <v>1574.254646738258</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="W41" t="n">
-        <v>1221.485991468144</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="X41" t="n">
-        <v>848.0202332070636</v>
+        <v>1546.511304651172</v>
       </c>
       <c r="Y41" t="n">
-        <v>457.8809012312519</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>743.7701938734156</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>569.3171645922886</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D42" t="n">
-        <v>420.3827549310373</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E42" t="n">
-        <v>261.1452999255818</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F42" t="n">
         <v>114.6107419524668</v>
@@ -7488,52 +7488,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>506.0277099972429</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>989.2557690644173</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.568096156132</v>
+        <v>1500.980450352591</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.280527752458</v>
+        <v>1902.692881948917</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2208.099456221131</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2045.167259169757</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U42" t="n">
-        <v>1816.986794823915</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V42" t="n">
-        <v>1581.834686592172</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W42" t="n">
-        <v>1327.59732986397</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X42" t="n">
-        <v>1119.745829658438</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y42" t="n">
-        <v>911.9855308934837</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C43" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D43" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E43" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F43" t="n">
-        <v>2175.813639154309</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G43" t="n">
-        <v>2006.675698900819</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H43" t="n">
-        <v>1847.699136224232</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I43" t="n">
         <v>1783.87624508755</v>
@@ -7600,19 +7600,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X43" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y43" t="n">
-        <v>2344.749822082216</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1493.637104951312</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="C44" t="n">
-        <v>1371.839859437666</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="D44" t="n">
-        <v>1371.839859437666</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="E44" t="n">
-        <v>1371.839859437666</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>377.243605767603</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7673,25 +7673,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T44" t="n">
-        <v>2270.376276991246</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U44" t="n">
-        <v>2270.376276991246</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V44" t="n">
-        <v>2270.376276991246</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W44" t="n">
-        <v>2270.376276991246</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X44" t="n">
-        <v>2270.376276991246</v>
+        <v>788.2295105572106</v>
       </c>
       <c r="Y44" t="n">
-        <v>1880.236945015434</v>
+        <v>788.2295105572106</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>665.1949245686499</v>
+        <v>829.8930637200692</v>
       </c>
       <c r="C45" t="n">
-        <v>490.7418952875228</v>
+        <v>655.4400344389422</v>
       </c>
       <c r="D45" t="n">
-        <v>490.7418952875228</v>
+        <v>506.505624777691</v>
       </c>
       <c r="E45" t="n">
-        <v>331.5044402820673</v>
+        <v>347.2681697722355</v>
       </c>
       <c r="F45" t="n">
-        <v>184.9698823089523</v>
+        <v>200.7336117991204</v>
       </c>
       <c r="G45" t="n">
-        <v>46.89499644164432</v>
+        <v>62.65872593181248</v>
       </c>
       <c r="H45" t="n">
         <v>46.89499644164432</v>
@@ -7725,25 +7725,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592726</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O45" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P45" t="n">
-        <v>2275.355263568887</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7752,25 +7752,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2166.134687810961</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>1966.591989864992</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1738.411525519149</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1503.259417287406</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1249.022060559205</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1041.170560353672</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>833.410261588718</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="C46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="D46" t="n">
-        <v>1783.87624508755</v>
+        <v>198.221686764156</v>
       </c>
       <c r="E46" t="n">
-        <v>1783.87624508755</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U46" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V46" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W46" t="n">
-        <v>2344.749822082216</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X46" t="n">
-        <v>2116.760271184199</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y46" t="n">
-        <v>1895.967692040669</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889585</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K21" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>28.42552004830515</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23400,10 +23400,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.59991698252625</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
         <v>225.6194376234954</v>
@@ -23495,10 +23495,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7054404458481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.8410310167687</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23589,10 +23589,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,10 +23619,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>130.237302184546</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23637,10 +23637,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.306005493684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,10 +23744,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>79.2885186758628</v>
       </c>
       <c r="W17" t="n">
-        <v>30.96077946991579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23820,13 +23820,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.83730805897838</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J19" t="n">
         <v>54.86879163620181</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>269.6851342372359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>109.5485035420193</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>167.860889315861</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>206.6353404160225</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24054,19 +24054,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24111,10 +24111,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>97.46670409619252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>10.39861340794073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4465608509556</v>
+        <v>56.47602836736833</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,13 +24212,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24260,19 +24260,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>226.2688027901219</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>260.06862895564</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>23.54341993217045</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
@@ -24367,25 +24367,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>112.131106959363</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>54.06789032788015</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,16 +24452,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>6.575141931511325</v>
+        <v>219.7479430430486</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53.38246657340292</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>38.9007265918932</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>5.324057858799534</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>171.1727984292525</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>156.9958130984537</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24725,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>33.5098202216918</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24774,10 +24774,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,10 +24807,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
-        <v>130.237302184546</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>61.42352734555773</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24883,13 +24883,13 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>37.69782020388175</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
         <v>286.2893338015361</v>
@@ -24920,22 +24920,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>138.7054404458478</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>200.3897959215338</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,22 +24962,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,25 +24996,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>30.74927216039544</v>
       </c>
       <c r="F33" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.86339572062737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>35.37321239743964</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25126,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,16 +25163,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>143.1636493533094</v>
       </c>
       <c r="I35" t="n">
-        <v>34.57290538624136</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25251,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>90.2674174379696</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25363,22 +25363,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>175.5524658530033</v>
+        <v>148.2018951116413</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,16 +25400,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>38.69073170348588</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25436,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>9.851320470103161</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25482,10 +25482,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>120.4210546291173</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>23.83730805897855</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>35.07891680826181</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25609,13 +25609,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.86144769834999</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>10.27202936160387</v>
       </c>
       <c r="U41" t="n">
-        <v>107.6233341883958</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25716,7 +25716,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G42" t="n">
         <v>136.6941370086349</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>60.58175323162558</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>75.8936634035763</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25840,13 +25840,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134075</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>244.6936187124983</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>229.793680498445</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,7 +25947,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>90.35770686414295</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -25992,7 +25992,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>42.63153801739874</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.86144769834929</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>142.0415872502139</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4465608509556</v>
@@ -26074,7 +26074,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2893338015361</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621283.8344459061</v>
+        <v>621283.8344459063</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621283.834445906</v>
+        <v>621283.8344459062</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>621283.834445906</v>
+        <v>621283.8344459063</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621283.8344459061</v>
+        <v>621283.8344459062</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621283.8344459062</v>
+        <v>621283.834445906</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621283.8344459061</v>
+        <v>621283.834445906</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621283.8344459063</v>
+        <v>621283.8344459059</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>304032.5147288477</v>
+        <v>304032.5147288475</v>
       </c>
       <c r="F2" t="n">
-        <v>304032.5147288477</v>
+        <v>304032.5147288475</v>
       </c>
       <c r="G2" t="n">
         <v>304032.5147288477</v>
       </c>
       <c r="H2" t="n">
-        <v>304032.5147288477</v>
+        <v>304032.5147288475</v>
       </c>
       <c r="I2" t="n">
         <v>304032.5147288477</v>
@@ -26338,22 +26338,22 @@
         <v>304032.5147288477</v>
       </c>
       <c r="K2" t="n">
-        <v>304032.5147288476</v>
+        <v>304032.5147288477</v>
       </c>
       <c r="L2" t="n">
         <v>304032.5147288477</v>
       </c>
       <c r="M2" t="n">
+        <v>304032.5147288477</v>
+      </c>
+      <c r="N2" t="n">
+        <v>304032.5147288475</v>
+      </c>
+      <c r="O2" t="n">
         <v>304032.5147288476</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>304032.5147288476</v>
-      </c>
-      <c r="O2" t="n">
-        <v>304032.5147288477</v>
-      </c>
-      <c r="P2" t="n">
-        <v>304032.5147288475</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007603</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321633</v>
@@ -26427,37 +26427,37 @@
         <v>445.1503857212451</v>
       </c>
       <c r="F4" t="n">
+        <v>445.1503857212451</v>
+      </c>
+      <c r="G4" t="n">
         <v>445.150385721245</v>
       </c>
-      <c r="G4" t="n">
-        <v>445.1503857212451</v>
-      </c>
       <c r="H4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="I4" t="n">
         <v>445.150385721245</v>
       </c>
       <c r="J4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="K4" t="n">
         <v>445.1503857212451</v>
       </c>
       <c r="L4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="M4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="N4" t="n">
         <v>445.1503857212451</v>
       </c>
       <c r="O4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="P4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212449</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63923.25724449015</v>
+        <v>63923.25724449009</v>
       </c>
       <c r="C6" t="n">
         <v>144692.6887760379</v>
@@ -26528,25 +26528,25 @@
         <v>144692.6887760379</v>
       </c>
       <c r="E6" t="n">
-        <v>-84246.70056127282</v>
+        <v>-84246.70056127291</v>
       </c>
       <c r="F6" t="n">
-        <v>261365.6422176799</v>
+        <v>261365.6422176798</v>
       </c>
       <c r="G6" t="n">
         <v>261365.6422176799</v>
       </c>
       <c r="H6" t="n">
-        <v>261365.6422176799</v>
+        <v>261365.6422176798</v>
       </c>
       <c r="I6" t="n">
         <v>261365.6422176799</v>
       </c>
       <c r="J6" t="n">
-        <v>198305.6996185736</v>
+        <v>198305.6996185737</v>
       </c>
       <c r="K6" t="n">
-        <v>261365.6422176798</v>
+        <v>261365.6422176799</v>
       </c>
       <c r="L6" t="n">
         <v>261365.6422176799</v>
@@ -26558,7 +26558,7 @@
         <v>261365.6422176798</v>
       </c>
       <c r="O6" t="n">
-        <v>261365.6422176799</v>
+        <v>261365.6422176798</v>
       </c>
       <c r="P6" t="n">
         <v>261365.6422176798</v>
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
       </c>
       <c r="G3" t="n">
+        <v>301.9048087062787</v>
+      </c>
+      <c r="H3" t="n">
         <v>301.9048087062786</v>
-      </c>
-      <c r="H3" t="n">
-        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26771,7 +26771,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,22 +27385,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,7 +27433,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>337.4020434725118</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.19550662405649</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>135.6716239354609</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>316.3359173894245</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>20.64642049173142</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.34602304031068</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>162.9651898226646</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7025041237114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,19 +27907,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,19 +27932,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>134.5443755429993</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27980,22 +27980,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>63.35062275757321</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>246.4912418877956</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31756,7 +31756,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31777,22 +31777,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K12" t="n">
-        <v>41.28764412823941</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>8.582382440617096</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32093,7 +32093,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
-        <v>124.0031279382449</v>
+        <v>50.94019673382266</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
@@ -32251,22 +32251,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P17" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q17" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S17" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I18" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
@@ -32321,25 +32321,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M18" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>168.8929552025813</v>
       </c>
       <c r="O18" t="n">
-        <v>106.835682503285</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P18" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R18" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S18" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T18" t="n">
         <v>2.617457728311981</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R19" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T19" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32488,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
-        <v>104.8606541711232</v>
+        <v>101.8932366165283</v>
       </c>
       <c r="L21" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
-        <v>104.8606541711232</v>
+        <v>41.28764412823941</v>
       </c>
       <c r="L24" t="n">
         <v>140.9980901415503</v>
@@ -32804,7 +32804,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P24" t="n">
-        <v>121.0357103836502</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
         <v>82.8928070998824</v>
@@ -33026,7 +33026,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
-        <v>12.30245131677464</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L27" t="n">
         <v>140.9980901415503</v>
@@ -33041,7 +33041,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
         <v>82.8928070998824</v>
@@ -33263,13 +33263,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>140.9980901415503</v>
+        <v>89.90300600836866</v>
       </c>
       <c r="M30" t="n">
-        <v>132.5855103788622</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
@@ -33278,7 +33278,7 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
         <v>82.8928070998824</v>
@@ -33500,7 +33500,7 @@
         <v>61.35218381454669</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L33" t="n">
         <v>140.9980901415503</v>
@@ -33515,10 +33515,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P33" t="n">
-        <v>95.19525841665677</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R33" t="n">
         <v>40.31853275515171</v>
@@ -33740,10 +33740,10 @@
         <v>104.8606541711232</v>
       </c>
       <c r="L36" t="n">
-        <v>88.97488009387843</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
@@ -33889,7 +33889,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33910,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
-        <v>101.8932366165283</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L39" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
-        <v>124.0031279382449</v>
+        <v>50.94019673382266</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,7 +34214,7 @@
         <v>104.8606541711232</v>
       </c>
       <c r="L42" t="n">
-        <v>140.9980901415503</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>164.5381207449219</v>
@@ -34229,7 +34229,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>67.93515893712743</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515172</v>
@@ -34460,13 +34460,13 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
-        <v>154.5040580932972</v>
+        <v>90.93104805041338</v>
       </c>
       <c r="P45" t="n">
-        <v>50.94019673382221</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R45" t="n">
         <v>40.31853275515172</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35422,13 +35422,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685987</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35583,7 +35583,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>305.5240716092571</v>
+        <v>235.4285579594296</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L17" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M17" t="n">
         <v>432.2802359107712</v>
@@ -35896,13 +35896,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L18" t="n">
         <v>373.2840556651353</v>
@@ -35972,16 +35972,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>513.9261999082065</v>
       </c>
       <c r="O18" t="n">
-        <v>358.1017573355701</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M19" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N19" t="n">
         <v>127.4430518046842</v>
@@ -36057,7 +36057,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36133,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,13 +36212,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36294,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36452,7 +36452,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>138.9262493549942</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36689,7 +36689,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
         <v>152.98832074971</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>322.1889715319537</v>
       </c>
       <c r="M30" t="n">
-        <v>456.1565402068438</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
         <v>516.8936174628016</v>
@@ -36926,7 +36926,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
         <v>152.98832074971</v>
@@ -37148,7 +37148,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,10 +37163,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>279.6836196422637</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
-        <v>321.2608456174634</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37555,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,13 +37634,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>308.4914891638518</v>
+        <v>235.4285579594296</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37716,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K41" t="n">
-        <v>258.4411848848623</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
         <v>373.423817067563</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
-        <v>373.2840556651353</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
@@ -37874,10 +37874,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>138.030672586955</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848623</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
         <v>231.4844522093429</v>
@@ -38108,13 +38108,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>405.7701329255823</v>
+        <v>342.1971228826985</v>
       </c>
       <c r="P45" t="n">
-        <v>235.4285579594291</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1471507.834847761</v>
+        <v>1504086.04936296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357673.1341635479</v>
+        <v>355560.9565341024</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075578</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8175182.414321274</v>
+        <v>8175182.414321273</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.8566953852487</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>90.26975814551395</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>65.59445268283731</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>128.577478579421</v>
       </c>
       <c r="U6" t="n">
-        <v>62.97619225831021</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>190.3453970742847</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>175.0426595591498</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1218,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>23.10070491240167</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>188.9257796665961</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>326.2575215723778</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
@@ -1415,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>268.1706052958633</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1512,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>115.4152783393348</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.5674513251595</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1627,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>20.91122745336624</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1701,10 +1703,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>29.38391736390425</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>117.889549819912</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>248.4637397942721</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1932,13 +1934,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>24.64815776426666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
         <v>67.03858805571424</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>116.1611518470178</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>13.39716969355935</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -2138,13 +2140,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>121.1169180541124</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>15.31220406845842</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>104.262613881998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>110.9705324835873</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>15.87440209048539</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2333,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>121.393646812485</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>89.17233976177307</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>91.6867458199809</v>
+        <v>24.64815776426666</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
@@ -2488,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>55.3154538915926</v>
+        <v>55.87379844347438</v>
       </c>
       <c r="H25" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>194.3411067988954</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
         <v>327.0451232326991</v>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>88.79255104355815</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>108.5443389727455</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>143.2914151594128</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>6.689382451253441</v>
+        <v>50.25646350156846</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>85.01043530101144</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>16.60419956430074</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>126.6553273111653</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>39.729165825481</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3110,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>126.8958082950055</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>111.0607502491295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.72080058190805</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>183.8814738793897</v>
+        <v>163.2921136437226</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>9.136888730010115</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3357,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.09894672786767</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>77.50776027739583</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>368.1853140382256</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>5.196738587682407</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>181.8453877183258</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>43.03218749909109</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>122.3078802415591</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>39.16452645773978</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>207.5109024131336</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3828,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>24.64815776426666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>7.186918017055031</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>268.9755074231835</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>40.30454292001799</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>139.937420180024</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4071,10 +4073,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>15.60609219526648</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>42.72398356738739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.392375396355269</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4313,16 +4315,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F2" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="G2" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4361,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>178.4763822127447</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>178.4763822127447</v>
       </c>
       <c r="E3" t="n">
         <v>20.03527576299844</v>
@@ -4410,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>396.1021129885993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>396.1021129885993</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>396.1021129885993</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X3" t="n">
-        <v>188.2506127830665</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.2506127830665</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428.8733789897854</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C6" t="n">
-        <v>428.8733789897854</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>279.9389693285341</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="U6" t="n">
-        <v>597.0887160098534</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="V6" t="n">
-        <v>597.0887160098534</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="W6" t="n">
-        <v>597.0887160098534</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="X6" t="n">
-        <v>597.0887160098534</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y6" t="n">
-        <v>597.0887160098534</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="7">
@@ -4747,16 +4749,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4835,19 +4837,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>777.1547729109448</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>290.2572196227447</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182.1001465464452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>182.1001465464452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>182.1001465464452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4890,13 +4892,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V9" t="n">
-        <v>425.5489231905453</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W9" t="n">
-        <v>182.1001465464452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>182.1001465464452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>182.1001465464452</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4993,19 +4995,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2087.181164129222</v>
+        <v>2073.870422793465</v>
       </c>
       <c r="C11" t="n">
-        <v>2087.181164129222</v>
+        <v>1704.907905853054</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.628112035911</v>
+        <v>1346.642207246303</v>
       </c>
       <c r="E11" t="n">
-        <v>1371.839859437666</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F11" t="n">
         <v>960.8539546480588</v>
@@ -5039,10 +5041,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
         <v>762.591673824455</v>
@@ -5063,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X11" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y11" t="n">
-        <v>2087.181164129222</v>
+        <v>2073.870422793465</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L12" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M12" t="n">
         <v>974.4476973832902</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1089.378811714019</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1592.28953067257</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="C14" t="n">
-        <v>1592.28953067257</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="D14" t="n">
-        <v>1592.28953067257</v>
+        <v>1757.628112035911</v>
       </c>
       <c r="E14" t="n">
-        <v>1206.501278074326</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F14" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G14" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H14" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
@@ -5279,10 +5281,10 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M14" t="n">
         <v>1190.549107376119</v>
@@ -5300,28 +5302,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>1592.28953067257</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.28953067257</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X14" t="n">
-        <v>1592.28953067257</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1592.28953067257</v>
+        <v>2344.749822082216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.129334229901</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C15" t="n">
-        <v>639.676304948774</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D15" t="n">
-        <v>490.7418952875228</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E15" t="n">
-        <v>331.5044402820673</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F15" t="n">
-        <v>184.9698823089523</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G15" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H15" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5358,22 +5360,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L15" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M15" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2275.355263568887</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5382,25 +5384,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.069097472212</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2115.526399526243</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1887.3459351804</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1652.193826948657</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
-        <v>1397.956470220456</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X15" t="n">
-        <v>1190.104970014923</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y15" t="n">
-        <v>982.344671249969</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5516,13 +5518,13 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5549,16 +5551,16 @@
         <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1362.438508105998</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>1362.438508105998</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>988.9727498449184</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>598.8334178691067</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
         <v>114.6107419524668</v>
@@ -5592,52 +5594,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S18" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5697,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>164.2294932568138</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V19" t="n">
-        <v>164.2294932568138</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W19" t="n">
-        <v>164.2294932568138</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
         <v>46.89499644164432</v>
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1104.471821314765</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="C20" t="n">
-        <v>735.5093043743535</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="D20" t="n">
-        <v>377.243605767603</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="E20" t="n">
-        <v>377.243605767603</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="F20" t="n">
-        <v>377.243605767603</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5786,16 +5788,16 @@
         <v>1613.411982645667</v>
       </c>
       <c r="V20" t="n">
-        <v>1491.071661378887</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W20" t="n">
-        <v>1491.071661378887</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X20" t="n">
-        <v>1491.071661378887</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y20" t="n">
-        <v>1491.071661378887</v>
+        <v>556.1146817709025</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551154</v>
+        <v>829.8930637200692</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D21" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F21" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G21" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H21" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,19 +5834,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P21" t="n">
         <v>2344.749822082216</v>
@@ -5874,7 +5876,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.9864433947628</v>
+        <v>2100.72552159785</v>
       </c>
       <c r="C22" t="n">
-        <v>158.9864433947628</v>
+        <v>1931.789338669943</v>
       </c>
       <c r="D22" t="n">
-        <v>158.9864433947628</v>
+        <v>1931.789338669943</v>
       </c>
       <c r="E22" t="n">
-        <v>158.9864433947628</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F22" t="n">
-        <v>158.9864433947628</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J22" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S22" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T22" t="n">
-        <v>607.7685734363102</v>
+        <v>2328.715072495867</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363102</v>
+        <v>2328.715072495867</v>
       </c>
       <c r="V22" t="n">
-        <v>607.7685734363102</v>
+        <v>2328.715072495867</v>
       </c>
       <c r="W22" t="n">
-        <v>607.7685734363102</v>
+        <v>2328.715072495867</v>
       </c>
       <c r="X22" t="n">
-        <v>379.7790225382929</v>
+        <v>2100.72552159785</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.9864433947628</v>
+        <v>2100.72552159785</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1104.471821314765</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="C23" t="n">
-        <v>735.5093043743535</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="D23" t="n">
-        <v>377.243605767603</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="E23" t="n">
-        <v>377.243605767603</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="F23" t="n">
-        <v>377.243605767603</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="G23" t="n">
-        <v>377.243605767603</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164432</v>
+        <v>169.5148417067807</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6011,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W23" t="n">
-        <v>2254.676751615779</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X23" t="n">
-        <v>1881.210993354699</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y23" t="n">
-        <v>1491.071661378887</v>
+        <v>556.1146817709025</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="C25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="D25" t="n">
-        <v>457.6519340239745</v>
+        <v>262.3097393641648</v>
       </c>
       <c r="E25" t="n">
-        <v>457.6519340239745</v>
+        <v>262.3097393641648</v>
       </c>
       <c r="F25" t="n">
-        <v>457.6519340239745</v>
+        <v>262.3097393641648</v>
       </c>
       <c r="G25" t="n">
-        <v>401.7777381738809</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H25" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L25" t="n">
         <v>194.9121237200978</v>
@@ -6166,31 +6168,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="W25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="X25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="Y25" t="n">
-        <v>607.7685734363102</v>
+        <v>412.4263787765005</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1493.637104951312</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="C26" t="n">
-        <v>1124.6745880109</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="D26" t="n">
-        <v>1124.6745880109</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E26" t="n">
-        <v>738.8863354126561</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F26" t="n">
-        <v>738.8863354126561</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G26" t="n">
         <v>542.5821871309436</v>
@@ -6224,13 +6226,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T26" t="n">
-        <v>2270.376276991246</v>
+        <v>2071.865263721649</v>
       </c>
       <c r="U26" t="n">
-        <v>2270.376276991246</v>
+        <v>2071.865263721649</v>
       </c>
       <c r="V26" t="n">
-        <v>2270.376276991246</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="W26" t="n">
-        <v>2270.376276991246</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="X26" t="n">
-        <v>2270.376276991246</v>
+        <v>1740.802376378078</v>
       </c>
       <c r="Y26" t="n">
-        <v>1880.236945015434</v>
+        <v>1740.802376378078</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>790.3481019751835</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>615.8950726940565</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D27" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,7 +6308,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076319</v>
+        <v>232.2520930628877</v>
       </c>
       <c r="L27" t="n">
         <v>491.2196383161158</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>191.6337996329704</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>191.6337996329704</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q28" t="n">
-        <v>566.78431370192</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>412.4263787765005</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S28" t="n">
-        <v>412.4263787765005</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T28" t="n">
-        <v>412.4263787765005</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U28" t="n">
-        <v>412.4263787765005</v>
+        <v>2055.568676828139</v>
       </c>
       <c r="V28" t="n">
-        <v>412.4263787765005</v>
+        <v>1800.884188622252</v>
       </c>
       <c r="W28" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X28" t="n">
-        <v>412.4263787765005</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.6337996329704</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>742.2662563453166</v>
+        <v>1215.241994772169</v>
       </c>
       <c r="C29" t="n">
-        <v>742.2662563453166</v>
+        <v>846.279477831757</v>
       </c>
       <c r="D29" t="n">
-        <v>384.0005577385661</v>
+        <v>846.279477831757</v>
       </c>
       <c r="E29" t="n">
-        <v>384.0005577385661</v>
+        <v>846.279477831757</v>
       </c>
       <c r="F29" t="n">
-        <v>384.0005577385661</v>
+        <v>846.279477831757</v>
       </c>
       <c r="G29" t="n">
-        <v>384.0005577385661</v>
+        <v>428.0077103146419</v>
       </c>
       <c r="H29" t="n">
-        <v>53.6519484126074</v>
+        <v>97.65910098868318</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
+        <v>2344.749822082217</v>
+      </c>
+      <c r="R29" t="n">
         <v>2344.749822082216</v>
       </c>
-      <c r="R29" t="n">
-        <v>2270.376276991246</v>
-      </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U29" t="n">
-        <v>1833.394742014089</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V29" t="n">
-        <v>1502.331854670518</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W29" t="n">
-        <v>1502.331854670518</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X29" t="n">
-        <v>1128.866096409438</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="Y29" t="n">
-        <v>1128.866096409438</v>
+        <v>1601.84183483629</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6546,7 +6548,7 @@
         <v>172.2525564994817</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>541.8037716079657</v>
       </c>
       <c r="M30" t="n">
         <v>974.4476973832902</v>
@@ -6564,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C31" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D31" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E31" t="n">
-        <v>521.899446869632</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>375.0094993717216</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>205.8715591182311</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J31" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K31" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L31" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M31" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N31" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O31" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U31" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V31" t="n">
-        <v>607.7685734363102</v>
+        <v>2090.06533387633</v>
       </c>
       <c r="W31" t="n">
-        <v>607.7685734363102</v>
+        <v>1800.648163839369</v>
       </c>
       <c r="X31" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y31" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>929.5804400319823</v>
+        <v>801.6457659803002</v>
       </c>
       <c r="C32" t="n">
-        <v>560.6179230915707</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="D32" t="n">
-        <v>560.6179230915707</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E32" t="n">
-        <v>174.8296704933264</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F32" t="n">
-        <v>174.8296704933264</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G32" t="n">
-        <v>174.8296704933264</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
         <v>46.89499644164432</v>
@@ -6698,10 +6700,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
         <v>762.591673824455</v>
@@ -6719,31 +6721,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q32" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645667</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302096</v>
+        <v>2304.619351551428</v>
       </c>
       <c r="W32" t="n">
-        <v>929.5804400319823</v>
+        <v>1951.850696281314</v>
       </c>
       <c r="X32" t="n">
-        <v>929.5804400319823</v>
+        <v>1578.384938020234</v>
       </c>
       <c r="Y32" t="n">
-        <v>929.5804400319823</v>
+        <v>1188.245606044422</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>783.3663200545602</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>783.3663200545602</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>634.431910393309</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.568096156132</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.280527752458</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2224.924468802403</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6804,25 +6806,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2084.763385350902</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1856.582921005059</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1621.430812773317</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1367.193456045115</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1159.341955839582</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>951.5816570746283</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1896.058821096772</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C34" t="n">
-        <v>1896.058821096772</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D34" t="n">
-        <v>1896.058821096772</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E34" t="n">
         <v>1783.87624508755</v>
@@ -6877,31 +6879,31 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>2344.749822082216</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R34" t="n">
-        <v>2344.749822082216</v>
+        <v>2220.209198123676</v>
       </c>
       <c r="S34" t="n">
-        <v>2344.749822082216</v>
+        <v>2220.209198123676</v>
       </c>
       <c r="T34" t="n">
-        <v>2116.851400240302</v>
+        <v>2220.209198123676</v>
       </c>
       <c r="U34" t="n">
-        <v>2116.851400240302</v>
+        <v>2220.209198123676</v>
       </c>
       <c r="V34" t="n">
-        <v>2116.851400240302</v>
+        <v>1965.52470991779</v>
       </c>
       <c r="W34" t="n">
-        <v>2116.851400240302</v>
+        <v>1965.52470991779</v>
       </c>
       <c r="X34" t="n">
-        <v>2116.851400240302</v>
+        <v>1965.52470991779</v>
       </c>
       <c r="Y34" t="n">
-        <v>1896.058821096772</v>
+        <v>1965.52470991779</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1971.284063821136</v>
+        <v>762.9633593362823</v>
       </c>
       <c r="C35" t="n">
-        <v>1971.284063821136</v>
+        <v>762.9633593362823</v>
       </c>
       <c r="D35" t="n">
-        <v>1613.018365214386</v>
+        <v>762.9633593362823</v>
       </c>
       <c r="E35" t="n">
-        <v>1227.230112616142</v>
+        <v>377.1751067380381</v>
       </c>
       <c r="F35" t="n">
-        <v>816.2442078265342</v>
+        <v>377.1751067380381</v>
       </c>
       <c r="G35" t="n">
-        <v>397.972440309419</v>
+        <v>377.1751067380381</v>
       </c>
       <c r="H35" t="n">
         <v>212.2335778049849</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U35" t="n">
-        <v>2344.749822082216</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V35" t="n">
-        <v>2344.749822082216</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.749822082216</v>
+        <v>1149.563199400404</v>
       </c>
       <c r="X35" t="n">
-        <v>1971.284063821136</v>
+        <v>1149.563199400404</v>
       </c>
       <c r="Y35" t="n">
-        <v>1971.284063821136</v>
+        <v>1149.563199400404</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
@@ -7017,13 +7019,13 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N36" t="n">
         <v>1486.172378671464</v>
@@ -7038,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.1084007401373</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="C37" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="D37" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>426.1201086060705</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L37" t="n">
         <v>194.9121237200978</v>
@@ -7123,22 +7125,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V37" t="n">
-        <v>125.1856633885088</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W37" t="n">
-        <v>125.1856633885088</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1332.758312262428</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C38" t="n">
-        <v>1332.758312262428</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D38" t="n">
-        <v>1332.758312262428</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E38" t="n">
-        <v>1332.758312262428</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F38" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7196,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2339.500591185567</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2339.500591185567</v>
       </c>
       <c r="T38" t="n">
-        <v>2270.376276991246</v>
+        <v>2119.517831817146</v>
       </c>
       <c r="U38" t="n">
-        <v>2016.589854876113</v>
+        <v>1865.731409702013</v>
       </c>
       <c r="V38" t="n">
-        <v>1685.526967532542</v>
+        <v>1534.668522358442</v>
       </c>
       <c r="W38" t="n">
-        <v>1332.758312262428</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="X38" t="n">
-        <v>1332.758312262428</v>
+        <v>1181.899867088328</v>
       </c>
       <c r="Y38" t="n">
-        <v>1332.758312262428</v>
+        <v>791.7605351125167</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>814.4261909236466</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,49 +7256,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2275.355263568887</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>814.4261909236466</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="C40" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="D40" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="E40" t="n">
-        <v>170.4383098169565</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>170.4383098169565</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>170.4383098169565</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7333,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7372,10 +7374,10 @@
         <v>318.3514033993496</v>
       </c>
       <c r="X40" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y40" t="n">
-        <v>318.3514033993496</v>
+        <v>90.36185250133229</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>813.6833397238972</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>444.7208227834855</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>86.45512417673501</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>86.45512417673501</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>86.45512417673501</v>
       </c>
       <c r="G41" t="n">
-        <v>46.89499644164432</v>
+        <v>86.45512417673501</v>
       </c>
       <c r="H41" t="n">
-        <v>46.89499644164432</v>
+        <v>86.45512417673501</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1877.574191994743</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U41" t="n">
-        <v>1877.574191994743</v>
+        <v>1870.980640598662</v>
       </c>
       <c r="V41" t="n">
-        <v>1546.511304651172</v>
+        <v>1539.917753255091</v>
       </c>
       <c r="W41" t="n">
-        <v>1546.511304651172</v>
+        <v>1187.149097984977</v>
       </c>
       <c r="X41" t="n">
-        <v>1546.511304651172</v>
+        <v>813.6833397238972</v>
       </c>
       <c r="Y41" t="n">
-        <v>1546.511304651172</v>
+        <v>813.6833397238972</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>790.3481019751835</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>615.8950726940565</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>466.9606630328052</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>307.7232080273497</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6107419524668</v>
+        <v>161.1886500542347</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L42" t="n">
-        <v>506.0277099972429</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
-        <v>989.2557690644173</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N42" t="n">
-        <v>1500.980450352591</v>
+        <v>1690.99935435921</v>
       </c>
       <c r="O42" t="n">
-        <v>1902.692881948917</v>
+        <v>2092.711785955536</v>
       </c>
       <c r="P42" t="n">
-        <v>2208.099456221131</v>
+        <v>2275.355263568887</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2055.568676828139</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V43" t="n">
-        <v>2055.568676828139</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>788.2295105572106</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="C44" t="n">
-        <v>788.2295105572106</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="D44" t="n">
-        <v>788.2295105572106</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E44" t="n">
-        <v>788.2295105572106</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F44" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G44" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
         <v>46.89499644164432</v>
@@ -7649,13 +7651,13 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7670,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>2304.038162567047</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1972.975275223476</v>
       </c>
       <c r="W44" t="n">
-        <v>929.5804400319823</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="X44" t="n">
-        <v>788.2295105572106</v>
+        <v>1620.206619953362</v>
       </c>
       <c r="Y44" t="n">
-        <v>788.2295105572106</v>
+        <v>1620.206619953362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>829.8930637200692</v>
+        <v>857.284873186858</v>
       </c>
       <c r="C45" t="n">
-        <v>655.4400344389422</v>
+        <v>682.831843905731</v>
       </c>
       <c r="D45" t="n">
-        <v>506.505624777691</v>
+        <v>533.8974342444798</v>
       </c>
       <c r="E45" t="n">
-        <v>347.2681697722355</v>
+        <v>374.6599792390243</v>
       </c>
       <c r="F45" t="n">
-        <v>200.7336117991204</v>
+        <v>228.1254212659092</v>
       </c>
       <c r="G45" t="n">
-        <v>62.65872593181248</v>
+        <v>90.05053539860128</v>
       </c>
       <c r="H45" t="n">
-        <v>46.89499644164432</v>
+        <v>90.05053539860128</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
@@ -7728,22 +7730,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7761,16 +7763,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1441.112009177413</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1233.26050897188</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.1084007401373</v>
+        <v>1025.500210206926</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.221686764156</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>198.221686764156</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>198.221686764156</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
         <v>46.89499644164432</v>
@@ -7837,19 +7839,19 @@
         <v>379.8701515943957</v>
       </c>
       <c r="U46" t="n">
-        <v>379.8701515943957</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V46" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W46" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X46" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N18" t="n">
-        <v>476.3749567889585</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,16 +23260,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>28.42552004830515</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>118.0673333601903</v>
       </c>
     </row>
     <row r="12">
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23400,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>90.35770686414271</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.7054404458481</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>306.8410310167687</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23589,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,10 +23624,10 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>130.237302184546</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>264.8442918435686</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,7 +23752,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>79.2885186758628</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23820,13 +23822,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23944,16 +23946,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>109.5485035420193</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>400.6918801483846</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>206.6353404160225</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>157.3962949198573</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>56.47602836736833</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24178,7 +24180,7 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>209.74503553301</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24221,10 +24223,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>42.29154873722216</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>260.06862895564</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24294,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>53.38246657340298</v>
+        <v>120.4210546291172</v>
       </c>
       <c r="G24" t="n">
         <v>136.6941370086349</v>
@@ -24303,7 +24305,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>112.131106959363</v>
+        <v>111.5727624074812</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>214.5288682289405</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>219.7479430430486</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>128.9903807311793</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>38.9007265918932</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>5.324057858799534</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24621,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
         <v>214.5288682289405</v>
@@ -24655,19 +24657,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372356</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>156.9958130984537</v>
+        <v>113.4287320481387</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24768,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>61.42352734555773</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
@@ -24895,13 +24897,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247364</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>200.3897959215338</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
         <v>163.6851955497072</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>178.0537659492564</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24998,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>30.74927216039544</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>35.37321239743964</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J34" t="n">
         <v>54.86879163620181</v>
@@ -25117,22 +25119,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>70.09355499425727</v>
       </c>
       <c r="S34" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>143.1636493533094</v>
+        <v>163.7530095889765</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.3962949198572</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25245,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4465608509556</v>
+        <v>143.347614123088</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25363,19 +25365,19 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>148.2018951116413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>38.69073170348588</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.43307105237871</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25482,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>23.83730805897855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>103.4017751474781</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>35.07891680826181</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
         <v>152.8143555761653</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25646,7 +25648,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>124.5206690919674</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>10.27202936160387</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25716,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>129.5072189915798</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>17.5474909134075</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
         <v>163.6851955497072</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>210.9440149739632</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>229.793680498445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25959,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>90.35770686414295</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>24.31460448832686</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26001,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>142.0415872502139</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.4465608509556</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621283.8344459063</v>
+        <v>621283.8344459061</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621283.8344459062</v>
+        <v>621283.834445906</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>621283.8344459063</v>
+        <v>621283.834445906</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>621283.8344459061</v>
+        <v>621283.8344459063</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>621283.8344459062</v>
+        <v>621283.8344459061</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621283.834445906</v>
+        <v>621283.8344459063</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621283.834445906</v>
+        <v>621283.8344459061</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621283.8344459059</v>
+        <v>621283.834445906</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>304032.5147288475</v>
+        <v>304032.5147288477</v>
       </c>
       <c r="F2" t="n">
         <v>304032.5147288475</v>
       </c>
       <c r="G2" t="n">
+        <v>304032.5147288478</v>
+      </c>
+      <c r="H2" t="n">
         <v>304032.5147288477</v>
-      </c>
-      <c r="H2" t="n">
-        <v>304032.5147288475</v>
       </c>
       <c r="I2" t="n">
         <v>304032.5147288477</v>
       </c>
       <c r="J2" t="n">
+        <v>304032.5147288476</v>
+      </c>
+      <c r="K2" t="n">
+        <v>304032.5147288475</v>
+      </c>
+      <c r="L2" t="n">
+        <v>304032.5147288478</v>
+      </c>
+      <c r="M2" t="n">
+        <v>304032.5147288478</v>
+      </c>
+      <c r="N2" t="n">
+        <v>304032.5147288478</v>
+      </c>
+      <c r="O2" t="n">
         <v>304032.5147288477</v>
       </c>
-      <c r="K2" t="n">
-        <v>304032.5147288477</v>
-      </c>
-      <c r="L2" t="n">
-        <v>304032.5147288477</v>
-      </c>
-      <c r="M2" t="n">
-        <v>304032.5147288477</v>
-      </c>
-      <c r="N2" t="n">
-        <v>304032.5147288475</v>
-      </c>
-      <c r="O2" t="n">
-        <v>304032.5147288476</v>
-      </c>
       <c r="P2" t="n">
-        <v>304032.5147288476</v>
+        <v>304032.5147288478</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>279125.0601321633</v>
+      </c>
+      <c r="C4" t="n">
         <v>279125.0601321634</v>
-      </c>
-      <c r="C4" t="n">
-        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
+        <v>445.150385721245</v>
+      </c>
+      <c r="F4" t="n">
+        <v>445.150385721245</v>
+      </c>
+      <c r="G4" t="n">
         <v>445.1503857212451</v>
-      </c>
-      <c r="F4" t="n">
-        <v>445.1503857212451</v>
-      </c>
-      <c r="G4" t="n">
-        <v>445.150385721245</v>
       </c>
       <c r="H4" t="n">
         <v>445.150385721245</v>
       </c>
       <c r="I4" t="n">
-        <v>445.150385721245</v>
+        <v>445.1503857212451</v>
       </c>
       <c r="J4" t="n">
         <v>445.1503857212451</v>
@@ -26445,7 +26447,7 @@
         <v>445.1503857212451</v>
       </c>
       <c r="L4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="M4" t="n">
         <v>445.1503857212451</v>
@@ -26454,10 +26456,10 @@
         <v>445.1503857212451</v>
       </c>
       <c r="O4" t="n">
-        <v>445.1503857212451</v>
+        <v>445.150385721245</v>
       </c>
       <c r="P4" t="n">
-        <v>445.1503857212449</v>
+        <v>445.150385721245</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63923.25724449009</v>
+        <v>63923.25724449021</v>
       </c>
       <c r="C6" t="n">
         <v>144692.6887760379</v>
@@ -26528,40 +26530,40 @@
         <v>144692.6887760379</v>
       </c>
       <c r="E6" t="n">
-        <v>-84246.70056127291</v>
+        <v>-84246.70056127282</v>
       </c>
       <c r="F6" t="n">
         <v>261365.6422176798</v>
       </c>
       <c r="G6" t="n">
+        <v>261365.6422176801</v>
+      </c>
+      <c r="H6" t="n">
         <v>261365.6422176799</v>
-      </c>
-      <c r="H6" t="n">
-        <v>261365.6422176798</v>
       </c>
       <c r="I6" t="n">
         <v>261365.6422176799</v>
       </c>
       <c r="J6" t="n">
-        <v>198305.6996185737</v>
+        <v>198305.6996185736</v>
       </c>
       <c r="K6" t="n">
+        <v>261365.6422176798</v>
+      </c>
+      <c r="L6" t="n">
+        <v>261365.64221768</v>
+      </c>
+      <c r="M6" t="n">
+        <v>175347.108397604</v>
+      </c>
+      <c r="N6" t="n">
+        <v>261365.64221768</v>
+      </c>
+      <c r="O6" t="n">
         <v>261365.6422176799</v>
       </c>
-      <c r="L6" t="n">
-        <v>261365.6422176799</v>
-      </c>
-      <c r="M6" t="n">
-        <v>175347.1083976038</v>
-      </c>
-      <c r="N6" t="n">
-        <v>261365.6422176798</v>
-      </c>
-      <c r="O6" t="n">
-        <v>261365.6422176798</v>
-      </c>
       <c r="P6" t="n">
-        <v>261365.6422176798</v>
+        <v>261365.6422176801</v>
       </c>
     </row>
   </sheetData>
@@ -26753,25 +26755,25 @@
         <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="K3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27433,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0.7883850701522022</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>135.6716239354609</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>316.3359173894245</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>71.58725011540059</v>
       </c>
       <c r="U6" t="n">
-        <v>162.9651898226646</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27831,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>224.9573404408503</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27907,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>76.30299334868673</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27938,13 +27940,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>134.5443755429993</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27980,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>37.01560241437875</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28065,10 +28067,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31847,7 +31849,7 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>8.582382440617096</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
@@ -32075,7 +32077,7 @@
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32093,10 +32095,10 @@
         <v>154.5040580932971</v>
       </c>
       <c r="P15" t="n">
-        <v>50.94019673382266</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32467,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>101.8932366165283</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L21" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
-        <v>124.0031279382449</v>
+        <v>121.0357103836497</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32779,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K24" t="n">
-        <v>41.28764412823941</v>
+        <v>104.8606541711232</v>
       </c>
       <c r="L24" t="n">
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L25" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N25" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T25" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32943,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32964,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33016,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K27" t="n">
-        <v>104.8606541711232</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>140.9980901415503</v>
+        <v>29.29741352007977</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H28" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N28" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T28" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33180,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
@@ -33199,22 +33201,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P29" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S29" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33253,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I30" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>89.90300600836866</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>164.5381207449218</v>
+        <v>113.4430366117402</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S30" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T30" t="n">
         <v>2.617457728311981</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L31" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N31" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R31" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T31" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33417,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
@@ -33436,22 +33438,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P32" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S32" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I33" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
@@ -33506,25 +33508,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P33" t="n">
-        <v>124.0031279382449</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.8928070998824</v>
+        <v>50.94019673382196</v>
       </c>
       <c r="R33" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S33" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T33" t="n">
         <v>2.617457728311981</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L34" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N34" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R34" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T34" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33654,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33673,22 +33675,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33743,25 +33745,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T36" t="n">
         <v>2.617457728311981</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H37" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L37" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N37" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R37" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T37" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.35218381454669</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P39" t="n">
-        <v>50.94019673382266</v>
+        <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L40" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N40" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T40" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,22 +34216,22 @@
         <v>104.8606541711232</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
         <v>164.5381207449219</v>
       </c>
       <c r="N42" t="n">
-        <v>168.8929552025813</v>
+        <v>159.2275594481146</v>
       </c>
       <c r="O42" t="n">
         <v>154.5040580932972</v>
       </c>
       <c r="P42" t="n">
-        <v>124.0031279382449</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.93515893712743</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>40.31853275515172</v>
@@ -34378,7 +34380,7 @@
         <v>213.1129356452115</v>
       </c>
       <c r="N44" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466653</v>
       </c>
       <c r="O44" t="n">
         <v>204.4927189463719</v>
@@ -34460,7 +34462,7 @@
         <v>168.8929552025813</v>
       </c>
       <c r="O45" t="n">
-        <v>90.93104805041338</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P45" t="n">
         <v>124.0031279382449</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
@@ -35495,7 +35497,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>332.1534122685987</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35741,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>235.4285579594296</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093429</v>
@@ -35969,10 +35971,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N18" t="n">
-        <v>513.9261999082065</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255823</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36212,10 +36214,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K24" t="n">
         <v>167.911442166459</v>
@@ -36449,7 +36451,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36609,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K27" t="n">
-        <v>14.92312141674913</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2840556651353</v>
+        <v>261.5833790436648</v>
       </c>
       <c r="M27" t="n">
         <v>488.1091505729034</v>
@@ -36686,7 +36688,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36770,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L29" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M29" t="n">
         <v>432.2802359107712</v>
@@ -36844,13 +36846,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>322.1889715319537</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
-        <v>488.1091505729034</v>
+        <v>437.0140664397218</v>
       </c>
       <c r="N30" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P30" t="n">
         <v>308.4914891638518</v>
@@ -36990,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M31" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N31" t="n">
         <v>127.4430518046842</v>
@@ -37005,7 +37007,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L32" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M32" t="n">
         <v>432.2802359107712</v>
@@ -37081,13 +37083,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q32" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37160,13 +37162,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P33" t="n">
-        <v>91.93015837125802</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>121.0357103836495</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M34" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N34" t="n">
         <v>127.4430518046842</v>
@@ -37242,7 +37244,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
@@ -37318,13 +37320,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37394,10 +37396,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
@@ -37464,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M37" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37481,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37634,13 +37636,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
-        <v>235.4285579594296</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K42" t="n">
         <v>231.4844522093429</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>516.8936174628016</v>
+        <v>507.2282217083348</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>308.4914891638518</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>138.030672586955</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848623</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38026,7 +38028,7 @@
         <v>432.2802359107712</v>
       </c>
       <c r="N44" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620585</v>
       </c>
       <c r="O44" t="n">
         <v>355.1946887874306</v>
@@ -38096,7 +38098,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38108,13 +38110,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
